--- a/data_notes.xlsx
+++ b/data_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aconnolly\Documents\Bootcamp\Heart_Failure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0DFB3-27FB-4A80-A65B-462083464749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861230C7-72DF-421C-912A-3DE20EFB4AFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,10 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>37</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>54</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>54</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>37</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>60</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>36</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>49</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>36</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>53</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>52</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>53</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>51</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>53</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>56</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>54</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>41</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>48</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>48</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>54</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>35</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>52</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>59</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>37</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>36</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>41</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>49</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>45</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>50</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>37</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>45</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>32</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>52</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>46</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>32</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>35</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>52</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>49</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>55</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>54</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>63</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>52</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>53</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>55</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>49</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>39</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>52</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>39</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>39</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>56</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>41</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>51</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>40</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>46</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>57</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>48</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>34</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>50</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>39</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>59</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>47</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>38</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>49</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>38</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>35</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>34</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>47</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>52</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>46</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>58</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>54</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>34</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>48</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>54</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>42</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>38</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>61</v>
       </c>
@@ -6225,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>49</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>43</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>39</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>53</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>56</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>39</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>42</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>43</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>50</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>39</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>48</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>40</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>55</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>41</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>49</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>54</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>47</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>42</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>52</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>46</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>48</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>58</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>58</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>29</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>40</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>53</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>49</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>54</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>59</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>37</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>46</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>51</v>
       </c>
@@ -8049,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>46</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>54</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>58</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>58</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>50</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>46</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>50</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>48</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>45</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>41</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>62</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>49</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>42</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>57</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>47</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>46</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>42</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>31</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>56</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>50</v>
       </c>
@@ -8923,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>35</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>35</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>28</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>54</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>48</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>56</v>
       </c>
@@ -9189,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>56</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>30</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>39</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>54</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>55</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>29</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>46</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>48</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>33</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>55</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>50</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>53</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>41</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>37</v>
       </c>
@@ -9835,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>37</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>40</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>38</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>41</v>
       </c>
@@ -9987,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>54</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>39</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>55</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>55</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>43</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>54</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>48</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>61</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>62</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>53</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>55</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>36</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>51</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>55</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>46</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>54</v>
       </c>
@@ -11089,7 +11090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>59</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>54</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>34</v>
       </c>
@@ -11317,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>47</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>45</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>32</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>55</v>
       </c>
@@ -11507,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>45</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>59</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>51</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>57</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>54</v>
       </c>
@@ -11735,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>60</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>49</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>51</v>
       </c>
@@ -11849,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>55</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>42</v>
       </c>
@@ -11925,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>51</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>59</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>53</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>48</v>
       </c>
@@ -12077,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>36</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>48</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>47</v>
       </c>
@@ -12191,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>53</v>
       </c>
@@ -12267,7 +12268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>66</v>
       </c>
@@ -12457,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>60</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>56</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>62</v>
       </c>
@@ -12989,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>42</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>56</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>51</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>67</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>55</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>65</v>
       </c>
@@ -13483,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>75</v>
       </c>
@@ -13635,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>58</v>
       </c>
@@ -13901,7 +13902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>51</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>40</v>
       </c>
@@ -14091,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>58</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>60</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>35</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>68</v>
       </c>
@@ -14395,7 +14396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>64</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>55</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>45</v>
       </c>
@@ -14661,7 +14662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>61</v>
       </c>
@@ -14851,7 +14852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>55</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>57</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>76</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>61</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>48</v>
       </c>
@@ -15307,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>48</v>
       </c>
@@ -15345,7 +15346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>61</v>
       </c>
@@ -15383,7 +15384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>66</v>
       </c>
@@ -15421,7 +15422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>68</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>55</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>62</v>
       </c>
@@ -15611,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>53</v>
       </c>
@@ -15687,7 +15688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>75</v>
       </c>
@@ -15839,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>54</v>
       </c>
@@ -15877,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>54</v>
       </c>
@@ -15915,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>59</v>
       </c>
@@ -16067,7 +16068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>41</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>72</v>
       </c>
@@ -16713,7 +16714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>69</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>57</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>37</v>
       </c>
@@ -16941,7 +16942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>74</v>
       </c>
@@ -16979,7 +16980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>63</v>
       </c>
@@ -17017,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>58</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>64</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>57</v>
       </c>
@@ -17245,7 +17246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>55</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>56</v>
       </c>
@@ -17359,7 +17360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>57</v>
       </c>
@@ -17511,7 +17512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>68</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>51</v>
       </c>
@@ -17701,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>46</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>54</v>
       </c>
@@ -17777,7 +17778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>62</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>55</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>58</v>
       </c>
@@ -17929,7 +17930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>70</v>
       </c>
@@ -17967,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>67</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>57</v>
       </c>
@@ -18043,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>64</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>74</v>
       </c>
@@ -18119,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>65</v>
       </c>
@@ -18233,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>60</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>63</v>
       </c>
@@ -18309,7 +18310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>59</v>
       </c>
@@ -18347,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>53</v>
       </c>
@@ -18385,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>44</v>
       </c>
@@ -18423,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>61</v>
       </c>
@@ -18461,7 +18462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>57</v>
       </c>
@@ -18499,7 +18500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>71</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>64</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>40</v>
       </c>
@@ -18727,7 +18728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>48</v>
       </c>
@@ -18765,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>43</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>47</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>54</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>48</v>
       </c>
@@ -18917,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>46</v>
       </c>
@@ -18955,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>51</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>58</v>
       </c>
@@ -19031,7 +19032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>71</v>
       </c>
@@ -19069,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>57</v>
       </c>
@@ -19107,7 +19108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>66</v>
       </c>
@@ -19145,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>37</v>
       </c>
@@ -19335,7 +19336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>59</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>42</v>
       </c>
@@ -19411,7 +19412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>48</v>
       </c>
@@ -19449,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>40</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>62</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>44</v>
       </c>
@@ -19563,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>46</v>
       </c>
@@ -19601,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>59</v>
       </c>
@@ -19639,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>58</v>
       </c>
@@ -19677,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>49</v>
       </c>
@@ -19715,7 +19716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44</v>
       </c>
@@ -19791,7 +19792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>65</v>
       </c>
@@ -19867,7 +19868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>52</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>65</v>
       </c>
@@ -19943,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>63</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>45</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>41</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>60</v>
       </c>
@@ -20171,7 +20172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>62</v>
       </c>
@@ -20209,7 +20210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>57</v>
       </c>
@@ -20285,7 +20286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>44</v>
       </c>
@@ -20323,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>60</v>
       </c>
@@ -20361,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>63</v>
       </c>
@@ -20437,7 +20438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>51</v>
       </c>
@@ -20475,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>58</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>44</v>
       </c>
@@ -20551,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>47</v>
       </c>
@@ -20627,7 +20628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>57</v>
       </c>
@@ -20665,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>70</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>76</v>
       </c>
@@ -20741,7 +20742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>67</v>
       </c>
@@ -20817,7 +20818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>45</v>
       </c>
@@ -20855,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>39</v>
       </c>
@@ -20893,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>42</v>
       </c>
@@ -20931,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>56</v>
       </c>
@@ -20969,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>58</v>
       </c>
@@ -21083,7 +21084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>41</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>57</v>
       </c>
@@ -21159,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>42</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>62</v>
       </c>
@@ -21235,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>59</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>41</v>
       </c>
@@ -21311,7 +21312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>50</v>
       </c>
@@ -21349,7 +21350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>59</v>
       </c>
@@ -21387,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>61</v>
       </c>
@@ -21501,7 +21502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>52</v>
       </c>
@@ -21577,7 +21578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>66</v>
       </c>
@@ -21615,7 +21616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>58</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>64</v>
       </c>
@@ -21691,7 +21692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>50</v>
       </c>
@@ -21729,7 +21730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>44</v>
       </c>
@@ -21767,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>67</v>
       </c>
@@ -21805,7 +21806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>49</v>
       </c>
@@ -21843,7 +21844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>57</v>
       </c>
@@ -21881,7 +21882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>63</v>
       </c>
@@ -21919,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>48</v>
       </c>
@@ -21957,7 +21958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>51</v>
       </c>
@@ -21995,7 +21996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>60</v>
       </c>
@@ -22071,7 +22072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>45</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>41</v>
       </c>
@@ -22185,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>60</v>
       </c>
@@ -22223,7 +22224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>54</v>
       </c>
@@ -22261,7 +22262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>42</v>
       </c>
@@ -22299,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>49</v>
       </c>
@@ -22337,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>46</v>
       </c>
@@ -22413,7 +22414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>66</v>
       </c>
@@ -22489,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>49</v>
       </c>
@@ -22603,7 +22604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>65</v>
       </c>
@@ -22641,7 +22642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>54</v>
       </c>
@@ -22679,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>54</v>
       </c>
@@ -22755,7 +22756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>52</v>
       </c>
@@ -22793,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>52</v>
       </c>
@@ -22945,7 +22946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>42</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>54</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>46</v>
       </c>
@@ -23097,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>67</v>
       </c>
@@ -23173,7 +23174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>34</v>
       </c>
@@ -23211,7 +23212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>57</v>
       </c>
@@ -23249,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>64</v>
       </c>
@@ -23287,7 +23288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>59</v>
       </c>
@@ -23325,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>50</v>
       </c>
@@ -23363,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>51</v>
       </c>
@@ -23401,7 +23402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>54</v>
       </c>
@@ -23477,7 +23478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>52</v>
       </c>
@@ -23553,7 +23554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>58</v>
       </c>
@@ -23591,7 +23592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>41</v>
       </c>
@@ -23629,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>41</v>
       </c>
@@ -23667,7 +23668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>50</v>
       </c>
@@ -23705,7 +23706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>54</v>
       </c>
@@ -23743,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>64</v>
       </c>
@@ -23781,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>51</v>
       </c>
@@ -23819,7 +23820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>46</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>45</v>
       </c>
@@ -23933,7 +23934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>56</v>
       </c>
@@ -24085,7 +24086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>55</v>
       </c>
@@ -24161,7 +24162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>43</v>
       </c>
@@ -24199,7 +24200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>64</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>50</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>53</v>
       </c>
@@ -24313,7 +24314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>45</v>
       </c>
@@ -24351,7 +24352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>65</v>
       </c>
@@ -24389,7 +24390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>69</v>
       </c>
@@ -24427,7 +24428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>69</v>
       </c>
@@ -24503,7 +24504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>68</v>
       </c>
@@ -24541,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>34</v>
       </c>
@@ -24579,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>62</v>
       </c>
@@ -24655,7 +24656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>46</v>
       </c>
@@ -24693,7 +24694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>67</v>
       </c>
@@ -24731,7 +24732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>50</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>42</v>
       </c>
@@ -24845,7 +24846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>41</v>
       </c>
@@ -24883,7 +24884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>42</v>
       </c>
@@ -24921,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>53</v>
       </c>
@@ -24959,7 +24960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>43</v>
       </c>
@@ -25035,7 +25036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>52</v>
       </c>
@@ -25073,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>62</v>
       </c>
@@ -25149,7 +25150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>54</v>
       </c>
@@ -25225,7 +25226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>54</v>
       </c>
@@ -25301,7 +25302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>48</v>
       </c>
@@ -25339,7 +25340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>55</v>
       </c>
@@ -25377,7 +25378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>58</v>
       </c>
@@ -25415,7 +25416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>54</v>
       </c>
@@ -25453,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>69</v>
       </c>
@@ -25529,7 +25530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>68</v>
       </c>
@@ -25567,7 +25568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>58</v>
       </c>
@@ -25719,7 +25720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>52</v>
       </c>
@@ -25757,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>60</v>
       </c>
@@ -25795,7 +25796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>58</v>
       </c>
@@ -25871,7 +25872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>37</v>
       </c>
@@ -25909,7 +25910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>59</v>
       </c>
@@ -25947,7 +25948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>51</v>
       </c>
@@ -25985,7 +25986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>43</v>
       </c>
@@ -26061,7 +26062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>29</v>
       </c>
@@ -26099,7 +26100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>41</v>
       </c>
@@ -26137,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>63</v>
       </c>
@@ -26175,7 +26176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>51</v>
       </c>
@@ -26213,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>54</v>
       </c>
@@ -26251,7 +26252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>44</v>
       </c>
@@ -26327,7 +26328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>65</v>
       </c>
@@ -26365,7 +26366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>57</v>
       </c>
@@ -26441,7 +26442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>35</v>
       </c>
@@ -26479,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>41</v>
       </c>
@@ -26517,7 +26518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>62</v>
       </c>
@@ -26593,7 +26594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>58</v>
       </c>
@@ -26631,7 +26632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>52</v>
       </c>
@@ -26707,7 +26708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>39</v>
       </c>
@@ -26745,7 +26746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>45</v>
       </c>
@@ -26821,7 +26822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>62</v>
       </c>
@@ -26859,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>62</v>
       </c>
@@ -26897,7 +26898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>53</v>
       </c>
@@ -26973,7 +26974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>47</v>
       </c>
@@ -27011,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>52</v>
       </c>
@@ -27087,7 +27088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>39</v>
       </c>
@@ -27125,7 +27126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>53</v>
       </c>
@@ -27163,7 +27164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>62</v>
       </c>
@@ -27201,7 +27202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>51</v>
       </c>
@@ -27277,7 +27278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>65</v>
       </c>
@@ -27315,7 +27316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>65</v>
       </c>
@@ -27353,7 +27354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>60</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>54</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>44</v>
       </c>
@@ -27505,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>44</v>
       </c>
@@ -27543,7 +27544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>51</v>
       </c>
@@ -27581,7 +27582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>59</v>
       </c>
@@ -27619,7 +27620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>71</v>
       </c>
@@ -27657,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>61</v>
       </c>
@@ -27733,7 +27734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>64</v>
       </c>
@@ -27771,7 +27772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>43</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>58</v>
       </c>
@@ -27885,7 +27886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>58</v>
       </c>
@@ -27923,7 +27924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>49</v>
       </c>
@@ -27961,7 +27962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>48</v>
       </c>
@@ -27999,7 +28000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>52</v>
       </c>
@@ -28037,7 +28038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>44</v>
       </c>
@@ -28075,7 +28076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>56</v>
       </c>
@@ -28113,7 +28114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>57</v>
       </c>
@@ -28189,7 +28190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>53</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>52</v>
       </c>
@@ -28341,7 +28342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>59</v>
       </c>
@@ -28379,7 +28380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>64</v>
       </c>
@@ -28417,7 +28418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>66</v>
       </c>
@@ -28455,7 +28456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>39</v>
       </c>
@@ -28493,7 +28494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>57</v>
       </c>
@@ -28531,7 +28532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>58</v>
       </c>
@@ -28607,7 +28608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>47</v>
       </c>
@@ -28683,7 +28684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>35</v>
       </c>
@@ -28721,7 +28722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>61</v>
       </c>
@@ -28759,7 +28760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>58</v>
       </c>
@@ -28835,7 +28836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>58</v>
       </c>
@@ -28873,7 +28874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>56</v>
       </c>
@@ -28911,7 +28912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>56</v>
       </c>
@@ -28949,7 +28950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>67</v>
       </c>
@@ -28987,7 +28988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>55</v>
       </c>
@@ -29139,7 +29140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>41</v>
       </c>
@@ -29177,7 +29178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>59</v>
       </c>
@@ -29253,7 +29254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>45</v>
       </c>
@@ -29291,7 +29292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>68</v>
       </c>
@@ -29367,7 +29368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>57</v>
       </c>
@@ -29405,7 +29406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>38</v>
       </c>
@@ -29444,7 +29445,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L747" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L747" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
